--- a/software/3D-CMCC-Forest-Model/input/AUZobelboden/doc/biomassIP1.xlsx
+++ b/software/3D-CMCC-Forest-Model/input/AUZobelboden/doc/biomassIP1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="120" yWindow="60" windowWidth="18915" windowHeight="11565"/>
@@ -11,10 +11,47 @@
     <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
     <sheet name="Tabelle3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Alessio</author>
+  </authors>
+  <commentList>
+    <comment ref="A1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Alessio:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+guarda mail thomas</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
   <si>
@@ -150,8 +187,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,6 +210,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -305,7 +355,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -317,10 +367,23 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="daily correlation"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Larissa">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
-    <a:clrScheme name="Larissa">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -358,7 +421,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Larissa">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -392,7 +455,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -427,10 +489,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Larissa">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -603,16 +664,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:O30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" ht="240.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="158.25" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -659,7 +720,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="15.75" thickBot="1">
       <c r="A2" s="6" t="s">
         <v>11</v>
       </c>
@@ -706,7 +767,7 @@
         <v>335.8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="15.75" thickBot="1">
       <c r="A3" s="6" t="s">
         <v>12</v>
       </c>
@@ -753,7 +814,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="15.75" thickBot="1">
       <c r="A4" s="6" t="s">
         <v>13</v>
       </c>
@@ -800,7 +861,7 @@
         <v>337.5</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="15.75" thickBot="1">
       <c r="A5" s="6" t="s">
         <v>14</v>
       </c>
@@ -847,7 +908,7 @@
         <v>345.6</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="15.75" thickBot="1">
       <c r="A6" s="6" t="s">
         <v>15</v>
       </c>
@@ -894,7 +955,7 @@
         <v>345.6</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="15.75" thickBot="1">
       <c r="A7" s="6" t="s">
         <v>16</v>
       </c>
@@ -941,7 +1002,7 @@
         <v>356.2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="15.75" thickBot="1">
       <c r="A8" s="6" t="s">
         <v>17</v>
       </c>
@@ -988,7 +1049,7 @@
         <v>356.2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" thickBot="1">
       <c r="A9" s="6" t="s">
         <v>18</v>
       </c>
@@ -1035,7 +1096,7 @@
         <v>367.1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15.75" thickBot="1">
       <c r="A10" s="6" t="s">
         <v>19</v>
       </c>
@@ -1082,7 +1143,7 @@
         <v>367.1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" ht="15.75" thickBot="1">
       <c r="A11" s="6" t="s">
         <v>20</v>
       </c>
@@ -1129,7 +1190,7 @@
         <v>375.1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15.75" thickBot="1">
       <c r="A12" s="6" t="s">
         <v>21</v>
       </c>
@@ -1176,7 +1237,7 @@
         <v>375.1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15.75" thickBot="1">
       <c r="A13" s="6" t="s">
         <v>22</v>
       </c>
@@ -1223,7 +1284,7 @@
         <v>385.6</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15.75" thickBot="1">
       <c r="A14" s="6" t="s">
         <v>23</v>
       </c>
@@ -1270,7 +1331,7 @@
         <v>385.6</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1">
       <c r="A15" s="6" t="s">
         <v>24</v>
       </c>
@@ -1317,7 +1378,7 @@
         <v>394.6</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="15.75" thickBot="1">
       <c r="A16" s="6" t="s">
         <v>25</v>
       </c>
@@ -1364,7 +1425,7 @@
         <v>394.6</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" ht="15.75" thickBot="1">
       <c r="A17" s="6" t="s">
         <v>26</v>
       </c>
@@ -1411,7 +1472,7 @@
         <v>402.6</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" ht="15.75" thickBot="1">
       <c r="A18" s="6" t="s">
         <v>27</v>
       </c>
@@ -1458,7 +1519,7 @@
         <v>402.6</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:15" ht="15.75" thickBot="1">
       <c r="A19" s="6" t="s">
         <v>28</v>
       </c>
@@ -1505,7 +1566,7 @@
         <v>411.1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:15" ht="15.75" thickBot="1">
       <c r="A20" s="6" t="s">
         <v>29</v>
       </c>
@@ -1552,7 +1613,7 @@
         <v>411.1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:15" ht="15.75" thickBot="1">
       <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
@@ -1599,7 +1660,7 @@
         <v>419.1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:15" ht="15.75" thickBot="1">
       <c r="A22" s="6" t="s">
         <v>31</v>
       </c>
@@ -1646,7 +1707,7 @@
         <v>419.2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:15" ht="15.75" thickBot="1">
       <c r="A23" s="6" t="s">
         <v>32</v>
       </c>
@@ -1693,7 +1754,7 @@
         <v>427.6</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15.75" thickBot="1">
       <c r="A24" s="6" t="s">
         <v>33</v>
       </c>
@@ -1740,7 +1801,7 @@
         <v>427.6</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:15" ht="15.75" thickBot="1">
       <c r="A25" s="6" t="s">
         <v>34</v>
       </c>
@@ -1787,7 +1848,7 @@
         <v>439.1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:15" ht="15.75" thickBot="1">
       <c r="A26" s="6" t="s">
         <v>35</v>
       </c>
@@ -1834,7 +1895,7 @@
         <v>439.1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:15" ht="15.75" thickBot="1">
       <c r="A27" s="6" t="s">
         <v>36</v>
       </c>
@@ -1881,7 +1942,7 @@
         <v>447.8</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:15" ht="15.75" thickBot="1">
       <c r="A28" s="6" t="s">
         <v>37</v>
       </c>
@@ -1928,7 +1989,7 @@
         <v>447.8</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:15" ht="15.75" thickBot="1">
       <c r="A29" s="6" t="s">
         <v>38</v>
       </c>
@@ -1978,28 +2039,29 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
